--- a/inst/extdata/BIP_Landkreise.xlsx
+++ b/inst/extdata/BIP_Landkreise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca4a2da9ffa953f7/Dokumente/Arbeit/GBR/Projects/leafdown/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2B1499-70DE-4F7B-9141-065130F1020E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{6C2B1499-70DE-4F7B-9141-065130F1020E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2075BB2C-1AF9-4BE6-8A8A-F9DE53B755C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t>krs1214</t>
   </si>
@@ -62,15 +62,9 @@
     <t>Ammerland</t>
   </si>
   <si>
-    <t>Kiel, Landeshauptstadt</t>
-  </si>
-  <si>
     <t>Flensburg, Stadt</t>
   </si>
   <si>
-    <t>Lübeck, Hansestadt</t>
-  </si>
-  <si>
     <t>Neumünster, Stadt</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Stormarn</t>
   </si>
   <si>
-    <t>Hamburg, Freie und Hansestadt</t>
-  </si>
-  <si>
     <t>Braunschweig, Stadt</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Nienburg (Weser)</t>
   </si>
   <si>
-    <t>Oldenburg (Oldenburg), Stadt</t>
-  </si>
-  <si>
     <t>Schaumburg</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
     <t>Cuxhaven</t>
   </si>
   <si>
-    <t>Osnabrück, Stadt</t>
-  </si>
-  <si>
     <t>Harburg</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>Remscheid, Stadt</t>
   </si>
   <si>
-    <t>Solingen, Klingenstadt</t>
-  </si>
-  <si>
     <t>Wuppertal, Stadt</t>
   </si>
   <si>
@@ -377,9 +359,6 @@
     <t>Dortmund, Stadt</t>
   </si>
   <si>
-    <t>Hagen, Stadt der FernUniversität</t>
-  </si>
-  <si>
     <t>Ennepe-Ruhr-Kreis</t>
   </si>
   <si>
@@ -401,9 +380,6 @@
     <t>Unna</t>
   </si>
   <si>
-    <t>Darmstadt, Wissenschaftsstadt</t>
-  </si>
-  <si>
     <t>Erlangen</t>
   </si>
   <si>
@@ -413,9 +389,6 @@
     <t>Offenbach am Main, Stadt</t>
   </si>
   <si>
-    <t>Wiesbaden, Landeshauptstadt</t>
-  </si>
-  <si>
     <t>Bergstraße</t>
   </si>
   <si>
@@ -443,9 +416,6 @@
     <t>Odenwaldkreis</t>
   </si>
   <si>
-    <t>Koblenz, kreisfreie Stadt</t>
-  </si>
-  <si>
     <t>Rheingau-Taunus-Kreis</t>
   </si>
   <si>
@@ -467,9 +437,6 @@
     <t>Vogelsbergkreis</t>
   </si>
   <si>
-    <t>Kassel, documenta-Stadt</t>
-  </si>
-  <si>
     <t>Fulda</t>
   </si>
   <si>
@@ -494,36 +461,24 @@
     <t>Altenkirchen (Westerwald)</t>
   </si>
   <si>
-    <t>Trier, kreisfreie Stadt</t>
-  </si>
-  <si>
     <t>Bad Kreuznach</t>
   </si>
   <si>
     <t>Birkenfeld</t>
   </si>
   <si>
-    <t>Kaiserslautern, kreisfreie Stadt</t>
-  </si>
-  <si>
     <t>Cochem-Zell</t>
   </si>
   <si>
     <t>Mayen-Koblenz</t>
   </si>
   <si>
-    <t>Landau in der Pfalz, kreisfreie Stadt</t>
-  </si>
-  <si>
     <t>Neuwied</t>
   </si>
   <si>
     <t>Rhein-Hunsrück-Kreis</t>
   </si>
   <si>
-    <t>Ludwigshafen am Rhein, kreisfreie Stadt</t>
-  </si>
-  <si>
     <t>Rhein-Lahn-Kreis</t>
   </si>
   <si>
@@ -536,760 +491,853 @@
     <t>Eifelkreis Bitburg-Prüm</t>
   </si>
   <si>
-    <t>Mainz, kreisfreie Stadt</t>
-  </si>
-  <si>
     <t>Vulkaneifel</t>
   </si>
   <si>
+    <t>Freiburg im Breisgau</t>
+  </si>
+  <si>
+    <t>Alzey-Worms</t>
+  </si>
+  <si>
+    <t>Bad Dürkheim</t>
+  </si>
+  <si>
+    <t>Kusel</t>
+  </si>
+  <si>
+    <t>Donnersbergkreis</t>
+  </si>
+  <si>
+    <t>Germersheim</t>
+  </si>
+  <si>
+    <t>Südliche Weinstraße</t>
+  </si>
+  <si>
+    <t>Rhein-Pfalz-Kreis</t>
+  </si>
+  <si>
+    <t>Böblingen</t>
+  </si>
+  <si>
+    <t>Mainz-Bingen</t>
+  </si>
+  <si>
+    <t>Südwestpfalz</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Esslingen</t>
+  </si>
+  <si>
+    <t>Göppingen</t>
+  </si>
+  <si>
+    <t>Ludwigsburg</t>
+  </si>
+  <si>
+    <t>Rosenheim</t>
+  </si>
+  <si>
+    <t>Rems-Murr-Kreis</t>
+  </si>
+  <si>
+    <t>Heilbronn</t>
+  </si>
+  <si>
+    <t>Straubing</t>
+  </si>
+  <si>
+    <t>Hohenlohekreis</t>
+  </si>
+  <si>
+    <t>Schwäbisch Hall</t>
+  </si>
+  <si>
+    <t>Main-Tauber-Kreis</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Ostalbkreis</t>
+  </si>
+  <si>
+    <t>Baden-Baden</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Rastatt</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>Mannheim</t>
+  </si>
+  <si>
+    <t>Neckar-Odenwald-Kreis</t>
+  </si>
+  <si>
+    <t>Rhein-Neckar-Kreis</t>
+  </si>
+  <si>
+    <t>Pforzheim</t>
+  </si>
+  <si>
+    <t>Calw</t>
+  </si>
+  <si>
+    <t>Enzkreis</t>
+  </si>
+  <si>
+    <t>Freudenstadt</t>
+  </si>
+  <si>
+    <t>Amberg</t>
+  </si>
+  <si>
+    <t>Breisgau-Hochschwarzwald</t>
+  </si>
+  <si>
+    <t>Emmendingen</t>
+  </si>
+  <si>
+    <t>Ortenaukreis</t>
+  </si>
+  <si>
+    <t>Rottweil</t>
+  </si>
+  <si>
+    <t>Schwarzwald-Baar-Kreis</t>
+  </si>
+  <si>
+    <t>Tuttlingen</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Konstanz</t>
+  </si>
+  <si>
+    <t>Lörrach</t>
+  </si>
+  <si>
+    <t>Waldshut</t>
+  </si>
+  <si>
+    <t>Reutlingen</t>
+  </si>
+  <si>
+    <t>Tübingen</t>
+  </si>
+  <si>
+    <t>Zollernalbkreis</t>
+  </si>
+  <si>
+    <t>Ulm</t>
+  </si>
+  <si>
+    <t>Alb-Donau-Kreis</t>
+  </si>
+  <si>
+    <t>Biberach</t>
+  </si>
+  <si>
+    <t>Ravensburg</t>
+  </si>
+  <si>
+    <t>Sigmaringen</t>
+  </si>
+  <si>
+    <t>Ingolstadt</t>
+  </si>
+  <si>
+    <t>Altötting</t>
+  </si>
+  <si>
+    <t>Berchtesgadener Land</t>
+  </si>
+  <si>
+    <t>Bad Tölz-Wolfratshausen</t>
+  </si>
+  <si>
+    <t>Dachau</t>
+  </si>
+  <si>
+    <t>Ebersberg</t>
+  </si>
+  <si>
+    <t>Eichstätt</t>
+  </si>
+  <si>
+    <t>Erding</t>
+  </si>
+  <si>
+    <t>Freising</t>
+  </si>
+  <si>
+    <t>Fürstenfeldbruck</t>
+  </si>
+  <si>
+    <t>Garmisch-Partenkirchen</t>
+  </si>
+  <si>
+    <t>Landsberg am Lech</t>
+  </si>
+  <si>
+    <t>Miesbach</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Neuburg-Schrobenhausen</t>
+  </si>
+  <si>
+    <t>Starnberg</t>
+  </si>
+  <si>
+    <t>Traunstein</t>
+  </si>
+  <si>
+    <t>Weilheim-Schongau</t>
+  </si>
+  <si>
+    <t>Landshut</t>
+  </si>
+  <si>
+    <t>Passau</t>
+  </si>
+  <si>
+    <t>Deggendorf</t>
+  </si>
+  <si>
+    <t>Freyung-Grafenau</t>
+  </si>
+  <si>
+    <t>Kelheim</t>
+  </si>
+  <si>
+    <t>Coburg</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Rottal-Inn</t>
+  </si>
+  <si>
+    <t>Straubing-Bogen</t>
+  </si>
+  <si>
+    <t>Dingolfing-Landau</t>
+  </si>
+  <si>
+    <t>Amberg-Sulzbach</t>
+  </si>
+  <si>
+    <t>Cham</t>
+  </si>
+  <si>
+    <t>Hof</t>
+  </si>
+  <si>
+    <t>Schwandorf</t>
+  </si>
+  <si>
+    <t>Tirschenreuth</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
+  </si>
+  <si>
+    <t>Bayreuth</t>
+  </si>
+  <si>
+    <t>Ansbach</t>
+  </si>
+  <si>
+    <t>Forchheim</t>
+  </si>
+  <si>
+    <t>Kronach</t>
+  </si>
+  <si>
+    <t>Kulmbach</t>
+  </si>
+  <si>
+    <t>Lichtenfels</t>
+  </si>
+  <si>
+    <t>Nürnberg</t>
+  </si>
+  <si>
+    <t>Schwabach</t>
+  </si>
+  <si>
+    <t>Aschaffenburg</t>
+  </si>
+  <si>
+    <t>Erlangen-Höchstadt</t>
+  </si>
+  <si>
+    <t>Nürnberger Land</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Weißenburg-Gunzenhausen</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>Bad Kissingen</t>
+  </si>
+  <si>
+    <t>Memmingen</t>
+  </si>
+  <si>
+    <t>Rhön-Grabfeld</t>
+  </si>
+  <si>
+    <t>Haßberge</t>
+  </si>
+  <si>
+    <t>Kitzingen</t>
+  </si>
+  <si>
+    <t>Miltenberg</t>
+  </si>
+  <si>
+    <t>Main-Spessart</t>
+  </si>
+  <si>
+    <t>Aichach-Friedberg</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Günzburg</t>
+  </si>
+  <si>
+    <t>Neu-Ulm</t>
+  </si>
+  <si>
+    <t>Lindau (Bodensee)</t>
+  </si>
+  <si>
+    <t>Ostallgäu</t>
+  </si>
+  <si>
+    <t>Gera, Stadt</t>
+  </si>
+  <si>
+    <t>Unterallgäu</t>
+  </si>
+  <si>
+    <t>Donau-Ries</t>
+  </si>
+  <si>
+    <t>Oberallgäu</t>
+  </si>
+  <si>
+    <t>Regionalverband Saarbrücken</t>
+  </si>
+  <si>
+    <t>Merzig-Wadern</t>
+  </si>
+  <si>
+    <t>Neunkirchen</t>
+  </si>
+  <si>
+    <t>Saarlouis</t>
+  </si>
+  <si>
+    <t>Saarpfalz-Kreis</t>
+  </si>
+  <si>
+    <t>St. Wendel</t>
+  </si>
+  <si>
+    <t>Berlin, Stadt</t>
+  </si>
+  <si>
+    <t>Brandenburg an der Havel, Stadt</t>
+  </si>
+  <si>
+    <t>Cottbus, Stadt</t>
+  </si>
+  <si>
+    <t>Frankfurt (Oder), Stadt</t>
+  </si>
+  <si>
+    <t>Potsdam, Stadt</t>
+  </si>
+  <si>
+    <t>Barnim</t>
+  </si>
+  <si>
+    <t>Dahme-Spreewald</t>
+  </si>
+  <si>
+    <t>Elbe-Elster</t>
+  </si>
+  <si>
+    <t>Jena, Stadt</t>
+  </si>
+  <si>
+    <t>Havelland</t>
+  </si>
+  <si>
+    <t>Märkisch-Oderland</t>
+  </si>
+  <si>
+    <t>Suhl, Stadt</t>
+  </si>
+  <si>
+    <t>Oberhavel</t>
+  </si>
+  <si>
+    <t>Oberspreewald-Lausitz</t>
+  </si>
+  <si>
+    <t>Erzgebirgskreis</t>
+  </si>
+  <si>
+    <t>Oder-Spree</t>
+  </si>
+  <si>
+    <t>Ostprignitz-Ruppin</t>
+  </si>
+  <si>
+    <t>Weimar, Stadt</t>
+  </si>
+  <si>
+    <t>Potsdam-Mittelmark</t>
+  </si>
+  <si>
+    <t>Prignitz</t>
+  </si>
+  <si>
+    <t>Eisenach, Stadt</t>
+  </si>
+  <si>
+    <t>Spree-Neiße</t>
+  </si>
+  <si>
+    <t>Teltow-Fläming</t>
+  </si>
+  <si>
+    <t>Sächsische Schweiz-Osterzgebirge</t>
+  </si>
+  <si>
+    <t>Uckermark</t>
+  </si>
+  <si>
+    <t>Schwerin</t>
+  </si>
+  <si>
+    <t>Mecklenburgische Seenplatte</t>
+  </si>
+  <si>
+    <t>Vorpommern-Rügen</t>
+  </si>
+  <si>
+    <t>Nordwestmecklenburg</t>
+  </si>
+  <si>
+    <t>Mittelsachsen</t>
+  </si>
+  <si>
+    <t>Vorpommern-Greifswald</t>
+  </si>
+  <si>
+    <t>Halle (Saale), Stadt</t>
+  </si>
+  <si>
+    <t>Ludwigslust-Parchim</t>
+  </si>
+  <si>
+    <t>Chemnitz, Stadt</t>
+  </si>
+  <si>
+    <t>Vogtlandkreis</t>
+  </si>
+  <si>
+    <t>Zwickau</t>
+  </si>
+  <si>
+    <t>Dresden, Stadt</t>
+  </si>
+  <si>
+    <t>Bautzen</t>
+  </si>
+  <si>
+    <t>Görlitz</t>
+  </si>
+  <si>
+    <t>Meißen</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Nordsachsen</t>
+  </si>
+  <si>
+    <t>Dessau-Roßlau, Stadt</t>
+  </si>
+  <si>
+    <t>Altmarkkreis Salzwedel</t>
+  </si>
+  <si>
+    <t>Anhalt-Bitterfeld</t>
+  </si>
+  <si>
+    <t>Sonneberg</t>
+  </si>
+  <si>
+    <t>Börde</t>
+  </si>
+  <si>
+    <t>Burgenlandkreis</t>
+  </si>
+  <si>
+    <t>Harz</t>
+  </si>
+  <si>
+    <t>Jerichower Land</t>
+  </si>
+  <si>
+    <t>Wittenberg</t>
+  </si>
+  <si>
+    <t>Mansfeld-Südharz</t>
+  </si>
+  <si>
+    <t>Saalekreis</t>
+  </si>
+  <si>
+    <t>Salzlandkreis</t>
+  </si>
+  <si>
+    <t>Stendal</t>
+  </si>
+  <si>
+    <t>Erfurt, Stadt</t>
+  </si>
+  <si>
+    <t>Eichsfeld</t>
+  </si>
+  <si>
+    <t>Nordhausen</t>
+  </si>
+  <si>
+    <t>Wartburgkreis</t>
+  </si>
+  <si>
+    <t>Unstrut-Hainich-Kreis</t>
+  </si>
+  <si>
+    <t>Kyffhäuserkreis</t>
+  </si>
+  <si>
+    <t>Altenburger Land</t>
+  </si>
+  <si>
+    <t>Schmalkalden-Meiningen</t>
+  </si>
+  <si>
+    <t>Gotha</t>
+  </si>
+  <si>
+    <t>Sömmerda</t>
+  </si>
+  <si>
+    <t>Hildburghausen</t>
+  </si>
+  <si>
+    <t>Ilm-Kreis</t>
+  </si>
+  <si>
+    <t>Weimarer Land</t>
+  </si>
+  <si>
+    <t>Saalfeld-Rudolstadt</t>
+  </si>
+  <si>
+    <t>Saale-Holzland-Kreis</t>
+  </si>
+  <si>
+    <t>Saale-Orla-Kreis</t>
+  </si>
+  <si>
+    <t>Greiz</t>
+  </si>
+  <si>
+    <t>Bruttoinlandsprodukt</t>
+  </si>
+  <si>
+    <t>Das Bruttoinlandsprodukt (BIP) umfasst den Wert aller innerhalb einer Region im Beobachtungsjahr produzierten Waren und Dienstleistungen abzüglich der eingesetzten Vorleistungen. Es ist ein Maß für die gesamte wirtschaftliche Leistung und der wichtigste Indikator für Wirtschaftswachstum. Die auf der Karte verwendete Bezugsgröße ist die Einwohnerzahl. Die Karte zeigt auf Kreisebene das Bruttoinlandsprodukt je Einwohner für 2014.</t>
+  </si>
+  <si>
+    <t>Lesebeispiel: In den dunkelgrün eingefärbten Kreisen ist das Bruttoinlandsprodukt je Einwohner am höchsten. In den hellgrün eingefärbten Kreisen ist das Bruttoinlandsprodukt je Einwohner am geringsten.</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Das Bruttoinlandsprodukt je Einwohner ist der Quotient aus dem Bruttoinlandsprodukt (= die Summe der produzierten Waren und Dienstleistungen in einer Region abzüglich der eingesetzten Vorleistungen und abzüglich Gütersubventionen und zuzüglich Gütersteuern) in laufenden Preisen und der Einwohnerzahl zu einem Zeitpunkt.</t>
+  </si>
+  <si>
+    <t>Berechnung: Bruttoinlandsprodukt zum Zeitpunkt / Einwohner zum Zeitpunkt</t>
+  </si>
+  <si>
+    <t>Erläuterung</t>
+  </si>
+  <si>
+    <t>Die Bestimmung des Bruttoinlandsprodukts ist Teil der regionalen Volkswirtschaftlichen Gesamtrechnung (VGR) für die Länder und Kreise, die vom Arbeitskreis „Volkswirtschaftliche Gesamtrechnungen der Länder“ (AK VGRdL) erstellt wird. Das nominale Bruttoinlandsprodukt wird zu aktuellen Marktpreisen berechnet. Somit ist es von Veränderungen des Preisindex abhängig. Das reale Bruttoinlandsprodukt wird dagegen mit Preisen eines Basisjahres, also preisbereinigt, berechnet.</t>
+  </si>
+  <si>
+    <t>Das Bruttoinlandsprodukt basiert auf dem Inlandsprinzip, das heißt, es berücksichtigt die Produktion in der betrachteten Region. Dies trägt mit dazu bei, dass Regionen mit einem hohen Einpendlerüberhang wie Metropolregionen tendenziell ein höheres Bruttoinlandsprodukt je Einwohner haben als Regionen, aus denen Arbeitskräfte auspendeln, was für viele ländliche Regionen zutrifft.</t>
+  </si>
+  <si>
+    <t>Datenquelle</t>
+  </si>
+  <si>
+    <t>Daten: Arbeitskreis Volkswirtschaftliche Gesamtrechnung der Länder</t>
+  </si>
+  <si>
+    <t>Räumliche Auflösung: Landkreise und kreisfreie Städte</t>
+  </si>
+  <si>
+    <t>Zeitpunkt: 2014</t>
+  </si>
+  <si>
+    <t>Abgrenzung ländlicher Räume</t>
+  </si>
+  <si>
+    <t>Aufbereitung: Torsten Osigus / Stefan Neumeier 2016; Methodik: Patrick Küpper (2016) Abgrenzung und Typisierung ländlicher Räume. Braunschweig: Johann Heinrich von Thünen-Institut, 53 p, Thünen Working Paper 68</t>
+  </si>
+  <si>
+    <t>© BBSR Bonn 2013, Grundlage: LOCAL; © Nexiga GmbH 2013, ATKIS Basis DLM © BKG/GeoBasis-DE 2012; Gemeinden © GeoBasis-BKG, Stand 31.12.2015, Generalisierung BBSR; Statistische Ämter des Bundes und der Länder 2016; Laufende Raumbeobachtung des BBSR (INKAR-Daten) 2016; Erreichbarkeitsmodell: Thünen-Institut für Ländliche Räume 2016</t>
+  </si>
+  <si>
+    <t>Räumliche Auflösung: Landkreise und kreisfreie Städte, BBSR-Kreisregionen</t>
+  </si>
+  <si>
+    <t>Zeitbezug: September 2016</t>
+  </si>
+  <si>
+    <t>Thünen-Typen</t>
+  </si>
+  <si>
+    <t>Typ 1</t>
+  </si>
+  <si>
+    <t>sehr ländlich / weniger gute sozioökonomische Lage</t>
+  </si>
+  <si>
+    <t>Typ 2</t>
+  </si>
+  <si>
+    <t>sehr ländlich / gute sozioökonomische Lage</t>
+  </si>
+  <si>
+    <t>Typ 3</t>
+  </si>
+  <si>
+    <t>eher ländlich / gute sozioökonomische Lage</t>
+  </si>
+  <si>
+    <t>Typ 4</t>
+  </si>
+  <si>
+    <t>eher ländlich / weniger gute sozioökonomische Lage</t>
+  </si>
+  <si>
+    <t>Typ 5</t>
+  </si>
+  <si>
+    <t>Nicht-ländlich</t>
+  </si>
+  <si>
+    <t>© Thünen-Institut 2018</t>
+  </si>
+  <si>
+    <t>Quellangabe (Zitierhinweis): Landatlas (www.landatlas.de). Ausgabe 2018. Hrsg.: Thünen-Institut für Ländliche Räume - Braunschweig 2018. © Thünen-Institut 2018</t>
+  </si>
+  <si>
+    <t>Würzburg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Heilbronn (Stadtkreis)</t>
+  </si>
+  <si>
+    <t>Karlsruhe (Stadtkreis)</t>
+  </si>
+  <si>
+    <t>Ansbach (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Aschaffenburg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Augsburg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Bamberg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Bayreuth (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Coburg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Dillingen an der Donau</t>
+  </si>
+  <si>
+    <t>Hof (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Landshut (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Mühldorf am Inn</t>
+  </si>
+  <si>
+    <t>Neumarkt in der Oberpfalz</t>
+  </si>
+  <si>
+    <t>Neustadt an der Waldnaab</t>
+  </si>
+  <si>
+    <t>Neustadt an der Aisch-Bad Windsheim</t>
+  </si>
+  <si>
+    <t>Passau (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Pfaffenhofen an der Ilm</t>
+  </si>
+  <si>
+    <t>Regensburg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Rosenheim (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Schweinfurt (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Weiden in der Oberpfalz</t>
+  </si>
+  <si>
+    <t>Wunsiedel im Fichtelgebirge</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Kassel (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>Oldenburg (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Hagen</t>
+  </si>
+  <si>
+    <t>Solingen</t>
+  </si>
+  <si>
+    <t>Frankenthal (Pfalz)</t>
+  </si>
+  <si>
+    <t>Kaiserslautern (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Koblenz</t>
+  </si>
+  <si>
+    <t>Landau in der Pfalz</t>
+  </si>
+  <si>
+    <t>Ludwigshafen am Rhein</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Neustadt an der Weinstraße</t>
+  </si>
+  <si>
+    <t>Pirmasens</t>
+  </si>
+  <si>
+    <t>Speyer</t>
+  </si>
+  <si>
+    <t>Trier</t>
+  </si>
+  <si>
+    <t>Worms</t>
+  </si>
+  <si>
+    <t>Zweibrücken</t>
+  </si>
+  <si>
+    <t>Leipzig (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Kiel</t>
+  </si>
+  <si>
+    <t>Lübeck</t>
+  </si>
+  <si>
+    <t>Bodensee</t>
+  </si>
+  <si>
+    <t>Fürth (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Rostock</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
     <t>Trier-Saarburg</t>
   </si>
   <si>
-    <t>Frankenthal (Pfalz), kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Neustadt an der Weinstraße, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Pirmasens, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Speyer, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Worms, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Zweibrücken, kreisfreie Stadt</t>
-  </si>
-  <si>
-    <t>Freiburg im Breisgau</t>
-  </si>
-  <si>
-    <t>Alzey-Worms</t>
-  </si>
-  <si>
-    <t>Bad Dürkheim</t>
-  </si>
-  <si>
-    <t>Kusel</t>
-  </si>
-  <si>
-    <t>Donnersbergkreis</t>
-  </si>
-  <si>
-    <t>Germersheim</t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
-    <t>Südliche Weinstraße</t>
-  </si>
-  <si>
-    <t>Rhein-Pfalz-Kreis</t>
-  </si>
-  <si>
-    <t>Böblingen</t>
-  </si>
-  <si>
-    <t>Mainz-Bingen</t>
-  </si>
-  <si>
-    <t>Südwestpfalz</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Esslingen</t>
-  </si>
-  <si>
-    <t>Göppingen</t>
-  </si>
-  <si>
-    <t>Ludwigsburg</t>
-  </si>
-  <si>
-    <t>Rosenheim</t>
-  </si>
-  <si>
-    <t>Rems-Murr-Kreis</t>
-  </si>
-  <si>
-    <t>Heilbronn</t>
-  </si>
-  <si>
-    <t>Straubing</t>
-  </si>
-  <si>
-    <t>Hohenlohekreis</t>
-  </si>
-  <si>
-    <t>Schwäbisch Hall</t>
-  </si>
-  <si>
-    <t>Main-Tauber-Kreis</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Ostalbkreis</t>
-  </si>
-  <si>
-    <t>Baden-Baden</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
-    <t>Rastatt</t>
-  </si>
-  <si>
-    <t>Heidelberg</t>
-  </si>
-  <si>
-    <t>Mannheim</t>
-  </si>
-  <si>
-    <t>Neckar-Odenwald-Kreis</t>
-  </si>
-  <si>
-    <t>Rhein-Neckar-Kreis</t>
-  </si>
-  <si>
-    <t>Pforzheim</t>
-  </si>
-  <si>
-    <t>Calw</t>
-  </si>
-  <si>
-    <t>Enzkreis</t>
-  </si>
-  <si>
-    <t>Freudenstadt</t>
-  </si>
-  <si>
-    <t>Amberg</t>
-  </si>
-  <si>
-    <t>Breisgau-Hochschwarzwald</t>
-  </si>
-  <si>
-    <t>Emmendingen</t>
-  </si>
-  <si>
-    <t>Ortenaukreis</t>
-  </si>
-  <si>
-    <t>Rottweil</t>
-  </si>
-  <si>
-    <t>Schwarzwald-Baar-Kreis</t>
-  </si>
-  <si>
-    <t>Tuttlingen</t>
-  </si>
-  <si>
-    <t>Regensburg</t>
-  </si>
-  <si>
-    <t>Konstanz</t>
-  </si>
-  <si>
-    <t>Lörrach</t>
-  </si>
-  <si>
-    <t>Waldshut</t>
-  </si>
-  <si>
-    <t>Reutlingen</t>
-  </si>
-  <si>
-    <t>Tübingen</t>
-  </si>
-  <si>
-    <t>Zollernalbkreis</t>
-  </si>
-  <si>
-    <t>Ulm</t>
-  </si>
-  <si>
-    <t>Alb-Donau-Kreis</t>
-  </si>
-  <si>
-    <t>Biberach</t>
-  </si>
-  <si>
-    <t>Bodenseekreis</t>
-  </si>
-  <si>
-    <t>Ravensburg</t>
-  </si>
-  <si>
-    <t>Sigmaringen</t>
-  </si>
-  <si>
-    <t>Ingolstadt</t>
-  </si>
-  <si>
-    <t>München, Landeshauptstadt</t>
-  </si>
-  <si>
-    <t>Altötting</t>
-  </si>
-  <si>
-    <t>Berchtesgadener Land</t>
-  </si>
-  <si>
-    <t>Bad Tölz-Wolfratshausen</t>
-  </si>
-  <si>
-    <t>Dachau</t>
-  </si>
-  <si>
-    <t>Ebersberg</t>
-  </si>
-  <si>
-    <t>Eichstätt</t>
-  </si>
-  <si>
-    <t>Erding</t>
-  </si>
-  <si>
-    <t>Freising</t>
-  </si>
-  <si>
-    <t>Fürstenfeldbruck</t>
-  </si>
-  <si>
-    <t>Garmisch-Partenkirchen</t>
-  </si>
-  <si>
-    <t>Landsberg am Lech</t>
-  </si>
-  <si>
-    <t>Miesbach</t>
-  </si>
-  <si>
-    <t>Mühldorf a.Inn</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>Neuburg-Schrobenhausen</t>
-  </si>
-  <si>
-    <t>Pfaffenhofen a.d.Ilm</t>
-  </si>
-  <si>
-    <t>Starnberg</t>
-  </si>
-  <si>
-    <t>Weiden i.d.OPf.</t>
-  </si>
-  <si>
-    <t>Traunstein</t>
-  </si>
-  <si>
-    <t>Weilheim-Schongau</t>
-  </si>
-  <si>
-    <t>Landshut</t>
-  </si>
-  <si>
-    <t>Passau</t>
-  </si>
-  <si>
-    <t>Deggendorf</t>
-  </si>
-  <si>
-    <t>Freyung-Grafenau</t>
-  </si>
-  <si>
-    <t>Kelheim</t>
-  </si>
-  <si>
-    <t>Coburg</t>
-  </si>
-  <si>
-    <t>Regen</t>
-  </si>
-  <si>
-    <t>Rottal-Inn</t>
-  </si>
-  <si>
-    <t>Straubing-Bogen</t>
-  </si>
-  <si>
-    <t>Dingolfing-Landau</t>
-  </si>
-  <si>
-    <t>Amberg-Sulzbach</t>
-  </si>
-  <si>
-    <t>Cham</t>
-  </si>
-  <si>
-    <t>Neumarkt i.d.OPf.</t>
-  </si>
-  <si>
-    <t>Neustadt a.d.Waldnaab</t>
-  </si>
-  <si>
-    <t>Hof</t>
-  </si>
-  <si>
-    <t>Schwandorf</t>
-  </si>
-  <si>
-    <t>Tirschenreuth</t>
-  </si>
-  <si>
-    <t>Bamberg</t>
-  </si>
-  <si>
-    <t>Bayreuth</t>
-  </si>
-  <si>
-    <t>Ansbach</t>
-  </si>
-  <si>
-    <t>Forchheim</t>
-  </si>
-  <si>
-    <t>Kronach</t>
-  </si>
-  <si>
-    <t>Kulmbach</t>
-  </si>
-  <si>
-    <t>Lichtenfels</t>
-  </si>
-  <si>
-    <t>Wunsiedel i.Fichtelgebirge</t>
-  </si>
-  <si>
-    <t>Nürnberg</t>
-  </si>
-  <si>
-    <t>Schwabach</t>
-  </si>
-  <si>
-    <t>Aschaffenburg</t>
-  </si>
-  <si>
-    <t>Erlangen-Höchstadt</t>
-  </si>
-  <si>
-    <t>Nürnberger Land</t>
-  </si>
-  <si>
-    <t>Neustadt a.d.Aisch-Bad Windsheim</t>
-  </si>
-  <si>
-    <t>Roth</t>
-  </si>
-  <si>
-    <t>Weißenburg-Gunzenhausen</t>
-  </si>
-  <si>
-    <t>Würzburg</t>
-  </si>
-  <si>
-    <t>Bad Kissingen</t>
-  </si>
-  <si>
-    <t>Memmingen</t>
-  </si>
-  <si>
-    <t>Rhön-Grabfeld</t>
-  </si>
-  <si>
-    <t>Haßberge</t>
-  </si>
-  <si>
-    <t>Kitzingen</t>
-  </si>
-  <si>
-    <t>Miltenberg</t>
-  </si>
-  <si>
-    <t>Main-Spessart</t>
-  </si>
-  <si>
-    <t>Aichach-Friedberg</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Dillingen a.d.Donau</t>
-  </si>
-  <si>
-    <t>Günzburg</t>
-  </si>
-  <si>
-    <t>Neu-Ulm</t>
-  </si>
-  <si>
-    <t>Lindau (Bodensee)</t>
-  </si>
-  <si>
-    <t>Ostallgäu</t>
-  </si>
-  <si>
-    <t>Gera, Stadt</t>
-  </si>
-  <si>
-    <t>Unterallgäu</t>
-  </si>
-  <si>
-    <t>Donau-Ries</t>
-  </si>
-  <si>
-    <t>Oberallgäu</t>
-  </si>
-  <si>
-    <t>Regionalverband Saarbrücken</t>
-  </si>
-  <si>
-    <t>Merzig-Wadern</t>
-  </si>
-  <si>
-    <t>Neunkirchen</t>
-  </si>
-  <si>
-    <t>Saarlouis</t>
-  </si>
-  <si>
-    <t>Saarpfalz-Kreis</t>
-  </si>
-  <si>
-    <t>St. Wendel</t>
-  </si>
-  <si>
-    <t>Berlin, Stadt</t>
-  </si>
-  <si>
-    <t>Brandenburg an der Havel, Stadt</t>
-  </si>
-  <si>
-    <t>Cottbus, Stadt</t>
-  </si>
-  <si>
-    <t>Frankfurt (Oder), Stadt</t>
-  </si>
-  <si>
-    <t>Potsdam, Stadt</t>
-  </si>
-  <si>
-    <t>Barnim</t>
-  </si>
-  <si>
-    <t>Dahme-Spreewald</t>
-  </si>
-  <si>
-    <t>Elbe-Elster</t>
-  </si>
-  <si>
-    <t>Jena, Stadt</t>
-  </si>
-  <si>
-    <t>Havelland</t>
-  </si>
-  <si>
-    <t>Märkisch-Oderland</t>
-  </si>
-  <si>
-    <t>Suhl, Stadt</t>
-  </si>
-  <si>
-    <t>Oberhavel</t>
-  </si>
-  <si>
-    <t>Oberspreewald-Lausitz</t>
-  </si>
-  <si>
-    <t>Erzgebirgskreis</t>
-  </si>
-  <si>
-    <t>Oder-Spree</t>
-  </si>
-  <si>
-    <t>Ostprignitz-Ruppin</t>
-  </si>
-  <si>
-    <t>Weimar, Stadt</t>
-  </si>
-  <si>
-    <t>Potsdam-Mittelmark</t>
-  </si>
-  <si>
-    <t>Prignitz</t>
-  </si>
-  <si>
-    <t>Eisenach, Stadt</t>
-  </si>
-  <si>
-    <t>Spree-Neiße</t>
-  </si>
-  <si>
-    <t>Teltow-Fläming</t>
-  </si>
-  <si>
-    <t>Sächsische Schweiz-Osterzgebirge</t>
-  </si>
-  <si>
-    <t>Uckermark</t>
-  </si>
-  <si>
-    <t>Rostock</t>
-  </si>
-  <si>
-    <t>Schwerin</t>
-  </si>
-  <si>
-    <t>Leipzig, Stadt</t>
-  </si>
-  <si>
-    <t>Mecklenburgische Seenplatte</t>
-  </si>
-  <si>
-    <t>Landkreis Rostock</t>
-  </si>
-  <si>
-    <t>Vorpommern-Rügen</t>
-  </si>
-  <si>
-    <t>Nordwestmecklenburg</t>
-  </si>
-  <si>
-    <t>Mittelsachsen</t>
-  </si>
-  <si>
-    <t>Vorpommern-Greifswald</t>
-  </si>
-  <si>
-    <t>Halle (Saale), Stadt</t>
-  </si>
-  <si>
-    <t>Ludwigslust-Parchim</t>
-  </si>
-  <si>
-    <t>Chemnitz, Stadt</t>
-  </si>
-  <si>
-    <t>Magdeburg, Landeshauptstadt</t>
-  </si>
-  <si>
-    <t>Vogtlandkreis</t>
-  </si>
-  <si>
-    <t>Zwickau</t>
-  </si>
-  <si>
-    <t>Dresden, Stadt</t>
-  </si>
-  <si>
-    <t>Bautzen</t>
-  </si>
-  <si>
-    <t>Görlitz</t>
-  </si>
-  <si>
-    <t>Meißen</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>Nordsachsen</t>
-  </si>
-  <si>
-    <t>Dessau-Roßlau, Stadt</t>
-  </si>
-  <si>
-    <t>Altmarkkreis Salzwedel</t>
-  </si>
-  <si>
-    <t>Anhalt-Bitterfeld</t>
-  </si>
-  <si>
-    <t>Sonneberg</t>
-  </si>
-  <si>
-    <t>Börde</t>
-  </si>
-  <si>
-    <t>Burgenlandkreis</t>
-  </si>
-  <si>
-    <t>Harz</t>
-  </si>
-  <si>
-    <t>Jerichower Land</t>
-  </si>
-  <si>
-    <t>Wittenberg</t>
-  </si>
-  <si>
-    <t>Mansfeld-Südharz</t>
-  </si>
-  <si>
-    <t>Saalekreis</t>
-  </si>
-  <si>
-    <t>Salzlandkreis</t>
-  </si>
-  <si>
-    <t>Stendal</t>
-  </si>
-  <si>
-    <t>Erfurt, Stadt</t>
-  </si>
-  <si>
-    <t>Eichsfeld</t>
-  </si>
-  <si>
-    <t>Nordhausen</t>
-  </si>
-  <si>
-    <t>Wartburgkreis</t>
-  </si>
-  <si>
-    <t>Unstrut-Hainich-Kreis</t>
-  </si>
-  <si>
-    <t>Kyffhäuserkreis</t>
-  </si>
-  <si>
-    <t>Altenburger Land</t>
-  </si>
-  <si>
-    <t>Schmalkalden-Meiningen</t>
-  </si>
-  <si>
-    <t>Gotha</t>
-  </si>
-  <si>
-    <t>Sömmerda</t>
-  </si>
-  <si>
-    <t>Hildburghausen</t>
-  </si>
-  <si>
-    <t>Ilm-Kreis</t>
-  </si>
-  <si>
-    <t>Weimarer Land</t>
-  </si>
-  <si>
-    <t>Saalfeld-Rudolstadt</t>
-  </si>
-  <si>
-    <t>Saale-Holzland-Kreis</t>
-  </si>
-  <si>
-    <t>Saale-Orla-Kreis</t>
-  </si>
-  <si>
-    <t>Greiz</t>
-  </si>
-  <si>
-    <t>Bruttoinlandsprodukt</t>
-  </si>
-  <si>
-    <t>Das Bruttoinlandsprodukt (BIP) umfasst den Wert aller innerhalb einer Region im Beobachtungsjahr produzierten Waren und Dienstleistungen abzüglich der eingesetzten Vorleistungen. Es ist ein Maß für die gesamte wirtschaftliche Leistung und der wichtigste Indikator für Wirtschaftswachstum. Die auf der Karte verwendete Bezugsgröße ist die Einwohnerzahl. Die Karte zeigt auf Kreisebene das Bruttoinlandsprodukt je Einwohner für 2014.</t>
-  </si>
-  <si>
-    <t>Lesebeispiel: In den dunkelgrün eingefärbten Kreisen ist das Bruttoinlandsprodukt je Einwohner am höchsten. In den hellgrün eingefärbten Kreisen ist das Bruttoinlandsprodukt je Einwohner am geringsten.</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Das Bruttoinlandsprodukt je Einwohner ist der Quotient aus dem Bruttoinlandsprodukt (= die Summe der produzierten Waren und Dienstleistungen in einer Region abzüglich der eingesetzten Vorleistungen und abzüglich Gütersubventionen und zuzüglich Gütersteuern) in laufenden Preisen und der Einwohnerzahl zu einem Zeitpunkt.</t>
-  </si>
-  <si>
-    <t>Berechnung: Bruttoinlandsprodukt zum Zeitpunkt / Einwohner zum Zeitpunkt</t>
-  </si>
-  <si>
-    <t>Erläuterung</t>
-  </si>
-  <si>
-    <t>Die Bestimmung des Bruttoinlandsprodukts ist Teil der regionalen Volkswirtschaftlichen Gesamtrechnung (VGR) für die Länder und Kreise, die vom Arbeitskreis „Volkswirtschaftliche Gesamtrechnungen der Länder“ (AK VGRdL) erstellt wird. Das nominale Bruttoinlandsprodukt wird zu aktuellen Marktpreisen berechnet. Somit ist es von Veränderungen des Preisindex abhängig. Das reale Bruttoinlandsprodukt wird dagegen mit Preisen eines Basisjahres, also preisbereinigt, berechnet.</t>
-  </si>
-  <si>
-    <t>Das Bruttoinlandsprodukt basiert auf dem Inlandsprinzip, das heißt, es berücksichtigt die Produktion in der betrachteten Region. Dies trägt mit dazu bei, dass Regionen mit einem hohen Einpendlerüberhang wie Metropolregionen tendenziell ein höheres Bruttoinlandsprodukt je Einwohner haben als Regionen, aus denen Arbeitskräfte auspendeln, was für viele ländliche Regionen zutrifft.</t>
-  </si>
-  <si>
-    <t>Datenquelle</t>
-  </si>
-  <si>
-    <t>Daten: Arbeitskreis Volkswirtschaftliche Gesamtrechnung der Länder</t>
-  </si>
-  <si>
-    <t>Räumliche Auflösung: Landkreise und kreisfreie Städte</t>
-  </si>
-  <si>
-    <t>Zeitpunkt: 2014</t>
-  </si>
-  <si>
-    <t>Abgrenzung ländlicher Räume</t>
-  </si>
-  <si>
-    <t>Aufbereitung: Torsten Osigus / Stefan Neumeier 2016; Methodik: Patrick Küpper (2016) Abgrenzung und Typisierung ländlicher Räume. Braunschweig: Johann Heinrich von Thünen-Institut, 53 p, Thünen Working Paper 68</t>
-  </si>
-  <si>
-    <t>© BBSR Bonn 2013, Grundlage: LOCAL; © Nexiga GmbH 2013, ATKIS Basis DLM © BKG/GeoBasis-DE 2012; Gemeinden © GeoBasis-BKG, Stand 31.12.2015, Generalisierung BBSR; Statistische Ämter des Bundes und der Länder 2016; Laufende Raumbeobachtung des BBSR (INKAR-Daten) 2016; Erreichbarkeitsmodell: Thünen-Institut für Ländliche Räume 2016</t>
-  </si>
-  <si>
-    <t>Räumliche Auflösung: Landkreise und kreisfreie Städte, BBSR-Kreisregionen</t>
-  </si>
-  <si>
-    <t>Zeitbezug: September 2016</t>
-  </si>
-  <si>
-    <t>Thünen-Typen</t>
-  </si>
-  <si>
-    <t>Typ 1</t>
-  </si>
-  <si>
-    <t>sehr ländlich / weniger gute sozioökonomische Lage</t>
-  </si>
-  <si>
-    <t>Typ 2</t>
-  </si>
-  <si>
-    <t>sehr ländlich / gute sozioökonomische Lage</t>
-  </si>
-  <si>
-    <t>Typ 3</t>
-  </si>
-  <si>
-    <t>eher ländlich / gute sozioökonomische Lage</t>
-  </si>
-  <si>
-    <t>Typ 4</t>
-  </si>
-  <si>
-    <t>eher ländlich / weniger gute sozioökonomische Lage</t>
-  </si>
-  <si>
-    <t>Typ 5</t>
-  </si>
-  <si>
-    <t>Nicht-ländlich</t>
-  </si>
-  <si>
-    <t>© Thünen-Institut 2018</t>
-  </si>
-  <si>
-    <t>Quellangabe (Zitierhinweis): Landatlas (www.landatlas.de). Ausgabe 2018. Hrsg.: Thünen-Institut für Ländliche Räume - Braunschweig 2018. © Thünen-Institut 2018</t>
+    <t>Rostock (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>München (Kreisfreie Stadt)</t>
+  </si>
+  <si>
+    <t>Osnabrück (Kreisfreie Stadt)</t>
   </si>
 </sst>
 </file>
@@ -1643,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1770,7 +1818,7 @@
         <v>1002000</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1784,7 +1832,7 @@
         <v>1001000</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1798,7 +1846,7 @@
         <v>1003000</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>428</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1812,7 +1860,7 @@
         <v>1004000</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1826,7 +1874,7 @@
         <v>1051000</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1840,7 +1888,7 @@
         <v>3252000</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1854,7 +1902,7 @@
         <v>1053000</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1868,7 +1916,7 @@
         <v>1056000</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1882,7 +1930,7 @@
         <v>1057000</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1896,7 +1944,7 @@
         <v>1054000</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1910,7 +1958,7 @@
         <v>1055000</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1924,7 +1972,7 @@
         <v>1058000</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1938,7 +1986,7 @@
         <v>1059000</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1952,7 +2000,7 @@
         <v>1060000</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1966,7 +2014,7 @@
         <v>1061000</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1980,7 +2028,7 @@
         <v>3103000</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1994,7 +2042,7 @@
         <v>1062000</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2008,7 +2056,7 @@
         <v>2000000</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>406</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2022,7 +2070,7 @@
         <v>3101000</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2036,7 +2084,7 @@
         <v>3102000</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -2050,7 +2098,7 @@
         <v>3151000</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2064,7 +2112,7 @@
         <v>3152000</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2078,7 +2126,7 @@
         <v>3153000</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2092,7 +2140,7 @@
         <v>3154000</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2106,7 +2154,7 @@
         <v>3155000</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2120,7 +2168,7 @@
         <v>3156000</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2134,7 +2182,7 @@
         <v>3402000</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2148,7 +2196,7 @@
         <v>3158000</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2162,7 +2210,7 @@
         <v>3241000</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2176,7 +2224,7 @@
         <v>3251000</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2190,7 +2238,7 @@
         <v>3254000</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -2204,7 +2252,7 @@
         <v>3255000</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2218,7 +2266,7 @@
         <v>3256000</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2232,7 +2280,7 @@
         <v>3403000</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -2246,7 +2294,7 @@
         <v>3257000</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2260,7 +2308,7 @@
         <v>3351000</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2274,7 +2322,7 @@
         <v>3352000</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2288,7 +2336,7 @@
         <v>3404000</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>436</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2302,7 +2350,7 @@
         <v>3353000</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2316,7 +2364,7 @@
         <v>3354000</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2330,7 +2378,7 @@
         <v>3355000</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -2344,7 +2392,7 @@
         <v>3356000</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2358,7 +2406,7 @@
         <v>3357000</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2372,7 +2420,7 @@
         <v>3358000</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2386,7 +2434,7 @@
         <v>3359000</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -2400,7 +2448,7 @@
         <v>3360000</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2414,7 +2462,7 @@
         <v>3361000</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2428,7 +2476,7 @@
         <v>3401000</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2442,7 +2490,7 @@
         <v>3452000</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2456,7 +2504,7 @@
         <v>3453000</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2470,7 +2518,7 @@
         <v>3454000</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2484,7 +2532,7 @@
         <v>5113000</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -2498,7 +2546,7 @@
         <v>3455000</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2512,7 +2560,7 @@
         <v>3456000</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2526,7 +2574,7 @@
         <v>3457000</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2540,7 +2588,7 @@
         <v>3458000</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2554,7 +2602,7 @@
         <v>3459000</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2568,7 +2616,7 @@
         <v>3460000</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2582,7 +2630,7 @@
         <v>3461000</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2596,7 +2644,7 @@
         <v>5114000</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -2610,7 +2658,7 @@
         <v>3462000</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2624,7 +2672,7 @@
         <v>4011000</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2638,7 +2686,7 @@
         <v>4012000</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -2652,7 +2700,7 @@
         <v>5111000</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -2666,7 +2714,7 @@
         <v>5112000</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2680,7 +2728,7 @@
         <v>5116000</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -2694,7 +2742,7 @@
         <v>5117000</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2708,7 +2756,7 @@
         <v>5119000</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2722,7 +2770,7 @@
         <v>5120000</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -2736,7 +2784,7 @@
         <v>5122000</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2750,7 +2798,7 @@
         <v>5124000</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2764,7 +2812,7 @@
         <v>5154000</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -2778,7 +2826,7 @@
         <v>5158000</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -2792,7 +2840,7 @@
         <v>5162000</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2806,7 +2854,7 @@
         <v>5166000</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -2820,7 +2868,7 @@
         <v>5170000</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -2834,7 +2882,7 @@
         <v>5314000</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2848,7 +2896,7 @@
         <v>5315000</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2862,7 +2910,7 @@
         <v>5316000</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -2876,7 +2924,7 @@
         <v>5554000</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -2890,7 +2938,7 @@
         <v>5334000</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -2904,7 +2952,7 @@
         <v>5358000</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2918,7 +2966,7 @@
         <v>5362000</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -2932,7 +2980,7 @@
         <v>5558000</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -2946,7 +2994,7 @@
         <v>5366000</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2960,7 +3008,7 @@
         <v>5370000</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2974,7 +3022,7 @@
         <v>5374000</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2988,7 +3036,7 @@
         <v>5378000</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -3002,7 +3050,7 @@
         <v>5382000</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -3016,7 +3064,7 @@
         <v>5512000</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -3030,7 +3078,7 @@
         <v>5513000</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -3044,7 +3092,7 @@
         <v>5515000</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -3058,7 +3106,7 @@
         <v>5915000</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -3072,7 +3120,7 @@
         <v>5562000</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -3086,7 +3134,7 @@
         <v>5566000</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -3100,7 +3148,7 @@
         <v>5570000</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -3114,7 +3162,7 @@
         <v>5711000</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -3128,7 +3176,7 @@
         <v>5754000</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -3142,7 +3190,7 @@
         <v>5758000</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -3156,7 +3204,7 @@
         <v>5762000</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3170,7 +3218,7 @@
         <v>5766000</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -3184,7 +3232,7 @@
         <v>5770000</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -3198,7 +3246,7 @@
         <v>5774000</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -3212,7 +3260,7 @@
         <v>5911000</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -3226,7 +3274,7 @@
         <v>5913000</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C113">
         <v>5</v>
@@ -3240,7 +3288,7 @@
         <v>5914000</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>411</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -3254,7 +3302,7 @@
         <v>5954000</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -3268,7 +3316,7 @@
         <v>5958000</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3282,7 +3330,7 @@
         <v>5962000</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -3296,7 +3344,7 @@
         <v>5966000</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -3310,7 +3358,7 @@
         <v>5970000</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -3324,7 +3372,7 @@
         <v>5974000</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -3338,7 +3386,7 @@
         <v>5978000</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -3352,7 +3400,7 @@
         <v>6411000</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -3366,7 +3414,7 @@
         <v>9562000</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -3380,7 +3428,7 @@
         <v>6412000</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -3394,7 +3442,7 @@
         <v>6413000</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -3408,7 +3456,7 @@
         <v>6414000</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>409</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -3422,7 +3470,7 @@
         <v>6431000</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -3436,7 +3484,7 @@
         <v>6438000</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -3450,7 +3498,7 @@
         <v>6432000</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -3464,7 +3512,7 @@
         <v>6433000</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -3478,7 +3526,7 @@
         <v>6434000</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -3492,7 +3540,7 @@
         <v>6532000</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -3506,7 +3554,7 @@
         <v>6435000</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -3520,7 +3568,7 @@
         <v>6436000</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -3534,7 +3582,7 @@
         <v>6437000</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3548,7 +3596,7 @@
         <v>7111000</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>415</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -3562,7 +3610,7 @@
         <v>6439000</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -3576,7 +3624,7 @@
         <v>6440000</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -3590,7 +3638,7 @@
         <v>6531000</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -3604,7 +3652,7 @@
         <v>9563000</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -3618,7 +3666,7 @@
         <v>6533000</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3632,7 +3680,7 @@
         <v>6534000</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -3646,7 +3694,7 @@
         <v>6535000</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3660,7 +3708,7 @@
         <v>6611000</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>408</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -3674,7 +3722,7 @@
         <v>6631000</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -3688,7 +3736,7 @@
         <v>6632000</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -3702,7 +3750,7 @@
         <v>6633000</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -3716,7 +3764,7 @@
         <v>6634000</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3730,7 +3778,7 @@
         <v>6635000</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3744,7 +3792,7 @@
         <v>6636000</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3758,7 +3806,7 @@
         <v>7131000</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3772,7 +3820,7 @@
         <v>7132000</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3786,7 +3834,7 @@
         <v>7211000</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="C153">
         <v>5</v>
@@ -3800,7 +3848,7 @@
         <v>7133000</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3814,7 +3862,7 @@
         <v>7134000</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3828,7 +3876,7 @@
         <v>7312000</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -3842,7 +3890,7 @@
         <v>7135000</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -3856,7 +3904,7 @@
         <v>7137000</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C158">
         <v>4</v>
@@ -3870,7 +3918,7 @@
         <v>7313000</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -3884,7 +3932,7 @@
         <v>7138000</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -3898,7 +3946,7 @@
         <v>7140000</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -3912,7 +3960,7 @@
         <v>7314000</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -3926,7 +3974,7 @@
         <v>7141000</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -3940,7 +3988,7 @@
         <v>7143000</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3954,7 +4002,7 @@
         <v>7231000</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3968,7 +4016,7 @@
         <v>7232000</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3982,7 +4030,7 @@
         <v>7315000</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>418</v>
       </c>
       <c r="C167">
         <v>5</v>
@@ -3996,7 +4044,7 @@
         <v>7233000</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -4010,7 +4058,7 @@
         <v>7235000</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4024,7 +4072,7 @@
         <v>7311000</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -4038,7 +4086,7 @@
         <v>7316000</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>419</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -4052,7 +4100,7 @@
         <v>7317000</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>420</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -4066,7 +4114,7 @@
         <v>7318000</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>421</v>
       </c>
       <c r="C173">
         <v>5</v>
@@ -4080,7 +4128,7 @@
         <v>7319000</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -4094,7 +4142,7 @@
         <v>7320000</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>424</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4108,7 +4156,7 @@
         <v>8311000</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -4122,7 +4170,7 @@
         <v>7331000</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -4136,7 +4184,7 @@
         <v>7332000</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C178">
         <v>4</v>
@@ -4150,7 +4198,7 @@
         <v>7336000</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4164,7 +4212,7 @@
         <v>7333000</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4178,7 +4226,7 @@
         <v>7334000</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C181">
         <v>3</v>
@@ -4192,7 +4240,7 @@
         <v>7335000</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -4206,7 +4254,7 @@
         <v>7337000</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -4220,7 +4268,7 @@
         <v>7338000</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C184">
         <v>5</v>
@@ -4234,7 +4282,7 @@
         <v>8115000</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -4248,7 +4296,7 @@
         <v>7339000</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -4262,7 +4310,7 @@
         <v>7340000</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4276,7 +4324,7 @@
         <v>8111000</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -4290,7 +4338,7 @@
         <v>8116000</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C189">
         <v>5</v>
@@ -4304,7 +4352,7 @@
         <v>8117000</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -4318,7 +4366,7 @@
         <v>8118000</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -4332,7 +4380,7 @@
         <v>9163000</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -4346,7 +4394,7 @@
         <v>8119000</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -4360,7 +4408,7 @@
         <v>8121000</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>384</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -4374,7 +4422,7 @@
         <v>8125000</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -4388,7 +4436,7 @@
         <v>9263000</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -4402,7 +4450,7 @@
         <v>8126000</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -4416,7 +4464,7 @@
         <v>8127000</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -4430,7 +4478,7 @@
         <v>8128000</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -4444,7 +4492,7 @@
         <v>8135000</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -4458,7 +4506,7 @@
         <v>8136000</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -4472,7 +4520,7 @@
         <v>8211000</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C202">
         <v>3</v>
@@ -4486,7 +4534,7 @@
         <v>8212000</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>385</v>
       </c>
       <c r="C203">
         <v>5</v>
@@ -4500,7 +4548,7 @@
         <v>8215000</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -4514,7 +4562,7 @@
         <v>8216000</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -4528,7 +4576,7 @@
         <v>8221000</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C206">
         <v>5</v>
@@ -4542,7 +4590,7 @@
         <v>8222000</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C207">
         <v>5</v>
@@ -4556,7 +4604,7 @@
         <v>8225000</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4570,7 +4618,7 @@
         <v>8226000</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C209">
         <v>5</v>
@@ -4584,7 +4632,7 @@
         <v>8231000</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -4598,7 +4646,7 @@
         <v>8235000</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C211">
         <v>3</v>
@@ -4612,7 +4660,7 @@
         <v>8236000</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -4626,7 +4674,7 @@
         <v>8237000</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -4640,7 +4688,7 @@
         <v>9361000</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -4654,7 +4702,7 @@
         <v>8315000</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -4668,7 +4716,7 @@
         <v>8316000</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -4682,7 +4730,7 @@
         <v>8317000</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -4696,7 +4744,7 @@
         <v>8325000</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -4710,7 +4758,7 @@
         <v>8326000</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -4724,7 +4772,7 @@
         <v>8327000</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -4738,7 +4786,7 @@
         <v>9362000</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -4752,7 +4800,7 @@
         <v>8335000</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -4766,7 +4814,7 @@
         <v>8336000</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -4780,7 +4828,7 @@
         <v>8337000</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -4794,7 +4842,7 @@
         <v>8415000</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C225">
         <v>3</v>
@@ -4808,7 +4856,7 @@
         <v>8416000</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C226">
         <v>3</v>
@@ -4822,7 +4870,7 @@
         <v>8417000</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -4836,7 +4884,7 @@
         <v>8421000</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C228">
         <v>5</v>
@@ -4850,7 +4898,7 @@
         <v>8425000</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C229">
         <v>2</v>
@@ -4864,7 +4912,7 @@
         <v>8426000</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -4878,7 +4926,7 @@
         <v>8435000</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>429</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -4892,7 +4940,7 @@
         <v>8436000</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -4906,7 +4954,7 @@
         <v>8437000</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -4920,7 +4968,7 @@
         <v>9161000</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C234">
         <v>5</v>
@@ -4934,7 +4982,7 @@
         <v>9162000</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>435</v>
       </c>
       <c r="C235">
         <v>5</v>
@@ -4948,7 +4996,7 @@
         <v>9171000</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -4962,7 +5010,7 @@
         <v>9172000</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -4976,7 +5024,7 @@
         <v>9173000</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -4990,7 +5038,7 @@
         <v>9174000</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -5004,7 +5052,7 @@
         <v>9175000</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C240">
         <v>3</v>
@@ -5018,7 +5066,7 @@
         <v>9176000</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C241">
         <v>2</v>
@@ -5032,7 +5080,7 @@
         <v>9177000</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C242">
         <v>3</v>
@@ -5046,7 +5094,7 @@
         <v>9178000</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -5060,7 +5108,7 @@
         <v>9179000</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C244">
         <v>5</v>
@@ -5074,7 +5122,7 @@
         <v>9180000</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -5088,7 +5136,7 @@
         <v>9181000</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C246">
         <v>3</v>
@@ -5102,7 +5150,7 @@
         <v>9182000</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C247">
         <v>3</v>
@@ -5116,7 +5164,7 @@
         <v>9183000</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -5130,7 +5178,7 @@
         <v>9184000</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C249">
         <v>5</v>
@@ -5144,7 +5192,7 @@
         <v>9185000</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C250">
         <v>2</v>
@@ -5158,7 +5206,7 @@
         <v>9186000</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -5172,7 +5220,7 @@
         <v>9187000</v>
       </c>
       <c r="B252" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -5186,7 +5234,7 @@
         <v>9188000</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C253">
         <v>5</v>
@@ -5200,7 +5248,7 @@
         <v>9363000</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -5214,7 +5262,7 @@
         <v>9189000</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C255">
         <v>3</v>
@@ -5228,7 +5276,7 @@
         <v>9190000</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C256">
         <v>3</v>
@@ -5242,7 +5290,7 @@
         <v>9261000</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -5256,7 +5304,7 @@
         <v>9262000</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -5270,7 +5318,7 @@
         <v>9271000</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -5284,7 +5332,7 @@
         <v>9272000</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -5298,7 +5346,7 @@
         <v>9273000</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C261">
         <v>2</v>
@@ -5312,7 +5360,7 @@
         <v>9463000</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -5326,7 +5374,7 @@
         <v>9274000</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -5340,7 +5388,7 @@
         <v>9275000</v>
       </c>
       <c r="B264" t="s">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -5354,7 +5402,7 @@
         <v>9276000</v>
       </c>
       <c r="B265" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -5368,7 +5416,7 @@
         <v>9277000</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -5382,7 +5430,7 @@
         <v>9278000</v>
       </c>
       <c r="B267" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C267">
         <v>2</v>
@@ -5396,7 +5444,7 @@
         <v>9279000</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -5410,7 +5458,7 @@
         <v>9371000</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -5424,7 +5472,7 @@
         <v>9372000</v>
       </c>
       <c r="B270" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -5438,7 +5486,7 @@
         <v>9373000</v>
       </c>
       <c r="B271" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="C271">
         <v>2</v>
@@ -5452,7 +5500,7 @@
         <v>9374000</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -5466,7 +5514,7 @@
         <v>9375000</v>
       </c>
       <c r="B273" t="s">
-        <v>221</v>
+        <v>401</v>
       </c>
       <c r="C273">
         <v>2</v>
@@ -5480,7 +5528,7 @@
         <v>9464000</v>
       </c>
       <c r="B274" t="s">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -5494,7 +5542,7 @@
         <v>9376000</v>
       </c>
       <c r="B275" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C275">
         <v>2</v>
@@ -5508,7 +5556,7 @@
         <v>9377000</v>
       </c>
       <c r="B276" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -5522,7 +5570,7 @@
         <v>9461000</v>
       </c>
       <c r="B277" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C277">
         <v>3</v>
@@ -5536,7 +5584,7 @@
         <v>9462000</v>
       </c>
       <c r="B278" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C278">
         <v>2</v>
@@ -5550,7 +5598,7 @@
         <v>9471000</v>
       </c>
       <c r="B279" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="C279">
         <v>3</v>
@@ -5564,7 +5612,7 @@
         <v>9472000</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="C280">
         <v>2</v>
@@ -5578,7 +5626,7 @@
         <v>9561000</v>
       </c>
       <c r="B281" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C281">
         <v>2</v>
@@ -5592,7 +5640,7 @@
         <v>9473000</v>
       </c>
       <c r="B282" t="s">
-        <v>261</v>
+        <v>391</v>
       </c>
       <c r="C282">
         <v>2</v>
@@ -5606,7 +5654,7 @@
         <v>9474000</v>
       </c>
       <c r="B283" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="C283">
         <v>2</v>
@@ -5620,7 +5668,7 @@
         <v>9475000</v>
       </c>
       <c r="B284" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -5634,7 +5682,7 @@
         <v>9476000</v>
       </c>
       <c r="B285" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -5648,7 +5696,7 @@
         <v>9477000</v>
       </c>
       <c r="B286" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -5662,7 +5710,7 @@
         <v>9478000</v>
       </c>
       <c r="B287" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -5676,7 +5724,7 @@
         <v>9479000</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -5690,7 +5738,7 @@
         <v>9564000</v>
       </c>
       <c r="B289" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C289">
         <v>5</v>
@@ -5704,7 +5752,7 @@
         <v>9565000</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C290">
         <v>2</v>
@@ -5718,7 +5766,7 @@
         <v>9571000</v>
       </c>
       <c r="B291" t="s">
-        <v>275</v>
+        <v>386</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -5732,7 +5780,7 @@
         <v>9661000</v>
       </c>
       <c r="B292" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C292">
         <v>3</v>
@@ -5746,7 +5794,7 @@
         <v>9572000</v>
       </c>
       <c r="B293" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C293">
         <v>3</v>
@@ -5760,7 +5808,7 @@
         <v>9573000</v>
       </c>
       <c r="B294" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
       <c r="C294">
         <v>3</v>
@@ -5774,7 +5822,7 @@
         <v>9574000</v>
       </c>
       <c r="B295" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C295">
         <v>3</v>
@@ -5788,7 +5836,7 @@
         <v>9575000</v>
       </c>
       <c r="B296" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -5802,7 +5850,7 @@
         <v>9576000</v>
       </c>
       <c r="B297" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="C297">
         <v>2</v>
@@ -5816,7 +5864,7 @@
         <v>9577000</v>
       </c>
       <c r="B298" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -5830,7 +5878,7 @@
         <v>9663000</v>
       </c>
       <c r="B299" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C299">
         <v>5</v>
@@ -5844,7 +5892,7 @@
         <v>9671000</v>
       </c>
       <c r="B300" t="s">
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="C300">
         <v>3</v>
@@ -5858,7 +5906,7 @@
         <v>9672000</v>
       </c>
       <c r="B301" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -5872,7 +5920,7 @@
         <v>9764000</v>
       </c>
       <c r="B302" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="C302">
         <v>2</v>
@@ -5886,7 +5934,7 @@
         <v>9673000</v>
       </c>
       <c r="B303" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -5900,7 +5948,7 @@
         <v>9674000</v>
       </c>
       <c r="B304" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -5914,7 +5962,7 @@
         <v>9675000</v>
       </c>
       <c r="B305" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="C305">
         <v>2</v>
@@ -5928,7 +5976,7 @@
         <v>9676000</v>
       </c>
       <c r="B306" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C306">
         <v>2</v>
@@ -5942,7 +5990,7 @@
         <v>9677000</v>
       </c>
       <c r="B307" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C307">
         <v>2</v>
@@ -5956,7 +6004,7 @@
         <v>9771000</v>
       </c>
       <c r="B308" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C308">
         <v>3</v>
@@ -5970,7 +6018,7 @@
         <v>9678000</v>
       </c>
       <c r="B309" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="C309">
         <v>2</v>
@@ -5984,7 +6032,7 @@
         <v>9679000</v>
       </c>
       <c r="B310" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="C310">
         <v>2</v>
@@ -5998,7 +6046,7 @@
         <v>9761000</v>
       </c>
       <c r="B311" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="C311">
         <v>5</v>
@@ -6012,7 +6060,7 @@
         <v>9772000</v>
       </c>
       <c r="B312" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="C312">
         <v>3</v>
@@ -6026,7 +6074,7 @@
         <v>9773000</v>
       </c>
       <c r="B313" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -6040,7 +6088,7 @@
         <v>9774000</v>
       </c>
       <c r="B314" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -6054,7 +6102,7 @@
         <v>9775000</v>
       </c>
       <c r="B315" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C315">
         <v>3</v>
@@ -6068,7 +6116,7 @@
         <v>9776000</v>
       </c>
       <c r="B316" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C316">
         <v>3</v>
@@ -6082,7 +6130,7 @@
         <v>9777000</v>
       </c>
       <c r="B317" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="C317">
         <v>2</v>
@@ -6096,7 +6144,7 @@
         <v>16052000</v>
       </c>
       <c r="B318" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C318">
         <v>4</v>
@@ -6110,7 +6158,7 @@
         <v>9778000</v>
       </c>
       <c r="B319" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C319">
         <v>2</v>
@@ -6124,7 +6172,7 @@
         <v>9779000</v>
       </c>
       <c r="B320" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C320">
         <v>2</v>
@@ -6138,7 +6186,7 @@
         <v>9780000</v>
       </c>
       <c r="B321" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -6152,7 +6200,7 @@
         <v>10041000</v>
       </c>
       <c r="B322" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="C322">
         <v>5</v>
@@ -6166,7 +6214,7 @@
         <v>10042000</v>
       </c>
       <c r="B323" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -6180,7 +6228,7 @@
         <v>10043000</v>
       </c>
       <c r="B324" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C324">
         <v>4</v>
@@ -6194,7 +6242,7 @@
         <v>10044000</v>
       </c>
       <c r="B325" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="C325">
         <v>4</v>
@@ -6208,7 +6256,7 @@
         <v>10045000</v>
       </c>
       <c r="B326" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -6222,7 +6270,7 @@
         <v>10046000</v>
       </c>
       <c r="B327" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -6236,7 +6284,7 @@
         <v>11000000</v>
       </c>
       <c r="B328" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="C328">
         <v>5</v>
@@ -6250,7 +6298,7 @@
         <v>12051000</v>
       </c>
       <c r="B329" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C329">
         <v>4</v>
@@ -6264,7 +6312,7 @@
         <v>12052000</v>
       </c>
       <c r="B330" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="C330">
         <v>4</v>
@@ -6278,7 +6326,7 @@
         <v>12053000</v>
       </c>
       <c r="B331" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="C331">
         <v>4</v>
@@ -6292,7 +6340,7 @@
         <v>12054000</v>
       </c>
       <c r="B332" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="C332">
         <v>5</v>
@@ -6306,7 +6354,7 @@
         <v>12060000</v>
       </c>
       <c r="B333" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C333">
         <v>4</v>
@@ -6320,7 +6368,7 @@
         <v>12061000</v>
       </c>
       <c r="B334" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C334">
         <v>4</v>
@@ -6334,7 +6382,7 @@
         <v>12062000</v>
       </c>
       <c r="B335" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -6348,7 +6396,7 @@
         <v>16053000</v>
       </c>
       <c r="B336" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="C336">
         <v>5</v>
@@ -6362,7 +6410,7 @@
         <v>12063000</v>
       </c>
       <c r="B337" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -6376,7 +6424,7 @@
         <v>12064000</v>
       </c>
       <c r="B338" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C338">
         <v>4</v>
@@ -6390,7 +6438,7 @@
         <v>16054000</v>
       </c>
       <c r="B339" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -6404,7 +6452,7 @@
         <v>12065000</v>
       </c>
       <c r="B340" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C340">
         <v>4</v>
@@ -6418,7 +6466,7 @@
         <v>12066000</v>
       </c>
       <c r="B341" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C341">
         <v>4</v>
@@ -6432,7 +6480,7 @@
         <v>14521000</v>
       </c>
       <c r="B342" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C342">
         <v>4</v>
@@ -6446,7 +6494,7 @@
         <v>12067000</v>
       </c>
       <c r="B343" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C343">
         <v>4</v>
@@ -6460,7 +6508,7 @@
         <v>12068000</v>
       </c>
       <c r="B344" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -6474,7 +6522,7 @@
         <v>16055000</v>
       </c>
       <c r="B345" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="C345">
         <v>4</v>
@@ -6488,7 +6536,7 @@
         <v>12069000</v>
       </c>
       <c r="B346" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C346">
         <v>4</v>
@@ -6502,7 +6550,7 @@
         <v>12070000</v>
       </c>
       <c r="B347" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -6516,7 +6564,7 @@
         <v>16056000</v>
       </c>
       <c r="B348" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -6530,7 +6578,7 @@
         <v>12071000</v>
       </c>
       <c r="B349" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C349">
         <v>4</v>
@@ -6544,7 +6592,7 @@
         <v>12072000</v>
       </c>
       <c r="B350" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C350">
         <v>4</v>
@@ -6558,7 +6606,7 @@
         <v>14628000</v>
       </c>
       <c r="B351" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C351">
         <v>4</v>
@@ -6572,7 +6620,7 @@
         <v>12073000</v>
       </c>
       <c r="B352" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C352">
         <v>4</v>
@@ -6586,7 +6634,7 @@
         <v>13003000</v>
       </c>
       <c r="B353" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="C353">
         <v>5</v>
@@ -6600,7 +6648,7 @@
         <v>13004000</v>
       </c>
       <c r="B354" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="C354">
         <v>4</v>
@@ -6614,7 +6662,7 @@
         <v>14713000</v>
       </c>
       <c r="B355" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="C355">
         <v>5</v>
@@ -6628,7 +6676,7 @@
         <v>13071000</v>
       </c>
       <c r="B356" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -6642,7 +6690,7 @@
         <v>13072000</v>
       </c>
       <c r="B357" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -6656,7 +6704,7 @@
         <v>13073000</v>
       </c>
       <c r="B358" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -6670,7 +6718,7 @@
         <v>13074000</v>
       </c>
       <c r="B359" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="C359">
         <v>4</v>
@@ -6684,7 +6732,7 @@
         <v>14522000</v>
       </c>
       <c r="B360" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C360">
         <v>4</v>
@@ -6698,7 +6746,7 @@
         <v>13075000</v>
       </c>
       <c r="B361" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -6712,7 +6760,7 @@
         <v>15002000</v>
       </c>
       <c r="B362" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C362">
         <v>5</v>
@@ -6726,7 +6774,7 @@
         <v>13076000</v>
       </c>
       <c r="B363" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -6740,7 +6788,7 @@
         <v>14511000</v>
       </c>
       <c r="B364" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C364">
         <v>5</v>
@@ -6754,7 +6802,7 @@
         <v>15003000</v>
       </c>
       <c r="B365" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="C365">
         <v>5</v>
@@ -6768,7 +6816,7 @@
         <v>14523000</v>
       </c>
       <c r="B366" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C366">
         <v>4</v>
@@ -6782,7 +6830,7 @@
         <v>14524000</v>
       </c>
       <c r="B367" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="C367">
         <v>4</v>
@@ -6796,7 +6844,7 @@
         <v>14612000</v>
       </c>
       <c r="B368" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C368">
         <v>5</v>
@@ -6810,7 +6858,7 @@
         <v>14625000</v>
       </c>
       <c r="B369" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="C369">
         <v>4</v>
@@ -6824,7 +6872,7 @@
         <v>14626000</v>
       </c>
       <c r="B370" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="C370">
         <v>4</v>
@@ -6838,7 +6886,7 @@
         <v>14627000</v>
       </c>
       <c r="B371" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="C371">
         <v>4</v>
@@ -6852,7 +6900,7 @@
         <v>14729000</v>
       </c>
       <c r="B372" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C372">
         <v>4</v>
@@ -6866,7 +6914,7 @@
         <v>14730000</v>
       </c>
       <c r="B373" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="C373">
         <v>4</v>
@@ -6880,7 +6928,7 @@
         <v>15001000</v>
       </c>
       <c r="B374" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="C374">
         <v>4</v>
@@ -6894,7 +6942,7 @@
         <v>15081000</v>
       </c>
       <c r="B375" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -6908,7 +6956,7 @@
         <v>15082000</v>
       </c>
       <c r="B376" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="C376">
         <v>4</v>
@@ -6922,7 +6970,7 @@
         <v>16072000</v>
       </c>
       <c r="B377" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -6936,7 +6984,7 @@
         <v>15083000</v>
       </c>
       <c r="B378" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -6950,7 +6998,7 @@
         <v>15084000</v>
       </c>
       <c r="B379" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="C379">
         <v>4</v>
@@ -6964,7 +7012,7 @@
         <v>15085000</v>
       </c>
       <c r="B380" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -6978,7 +7026,7 @@
         <v>15086000</v>
       </c>
       <c r="B381" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -6992,7 +7040,7 @@
         <v>15091000</v>
       </c>
       <c r="B382" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -7006,7 +7054,7 @@
         <v>15087000</v>
       </c>
       <c r="B383" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -7020,7 +7068,7 @@
         <v>15088000</v>
       </c>
       <c r="B384" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C384">
         <v>4</v>
@@ -7034,7 +7082,7 @@
         <v>15089000</v>
       </c>
       <c r="B385" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="C385">
         <v>4</v>
@@ -7048,7 +7096,7 @@
         <v>15090000</v>
       </c>
       <c r="B386" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -7062,7 +7110,7 @@
         <v>16051000</v>
       </c>
       <c r="B387" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="C387">
         <v>5</v>
@@ -7076,7 +7124,7 @@
         <v>16061000</v>
       </c>
       <c r="B388" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -7090,7 +7138,7 @@
         <v>16062000</v>
       </c>
       <c r="B389" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -7104,7 +7152,7 @@
         <v>16063000</v>
       </c>
       <c r="B390" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -7118,7 +7166,7 @@
         <v>16064000</v>
       </c>
       <c r="B391" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -7132,7 +7180,7 @@
         <v>16065000</v>
       </c>
       <c r="B392" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -7146,7 +7194,7 @@
         <v>16077000</v>
       </c>
       <c r="B393" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="C393">
         <v>4</v>
@@ -7160,7 +7208,7 @@
         <v>16066000</v>
       </c>
       <c r="B394" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -7174,7 +7222,7 @@
         <v>16067000</v>
       </c>
       <c r="B395" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C395">
         <v>4</v>
@@ -7188,7 +7236,7 @@
         <v>16068000</v>
       </c>
       <c r="B396" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -7202,7 +7250,7 @@
         <v>16069000</v>
       </c>
       <c r="B397" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -7216,7 +7264,7 @@
         <v>16070000</v>
       </c>
       <c r="B398" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -7230,7 +7278,7 @@
         <v>16071000</v>
       </c>
       <c r="B399" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="C399">
         <v>4</v>
@@ -7244,7 +7292,7 @@
         <v>16073000</v>
       </c>
       <c r="B400" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -7258,7 +7306,7 @@
         <v>16074000</v>
       </c>
       <c r="B401" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -7272,7 +7320,7 @@
         <v>16075000</v>
       </c>
       <c r="B402" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -7286,7 +7334,7 @@
         <v>16076000</v>
       </c>
       <c r="B403" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C403">
         <v>4</v>
@@ -7305,7 +7353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -7316,144 +7364,144 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -7473,7 +7521,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7501,7 +7549,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/BIP_Landkreise.xlsx
+++ b/inst/extdata/BIP_Landkreise.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="59" documentId="8_{6C2B1499-70DE-4F7B-9141-065130F1020E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2075BB2C-1AF9-4BE6-8A8A-F9DE53B755C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kreise" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -7353,7 +7353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -7540,7 +7540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
